--- a/datas/db.xlsx
+++ b/datas/db.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dano Sato\Documents\Python\REMO-Engine-100Examples\datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EB63B97-11C5-483C-A1CF-D2922541053A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{577C0BC8-3A52-4D7F-9C8B-C452E5E2B32E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="3" xr2:uid="{E60D345E-077A-4973-BE7F-27EB13B8077E}"/>
+    <workbookView xWindow="4560" yWindow="4560" windowWidth="28800" windowHeight="15370" activeTab="2" xr2:uid="{E60D345E-077A-4973-BE7F-27EB13B8077E}"/>
   </bookViews>
   <sheets>
     <sheet name="item" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
   <si>
     <t>Small Potion</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -128,10 +128,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>language</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>언어</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -161,6 +157,30 @@
   </si>
   <si>
     <t>japanese_script.ttf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 종료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Language</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -745,10 +765,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3AEB28D-300B-4980-9703-5A1AF0DC58DD}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -760,21 +780,35 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
         <v>23</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>24</v>
-      </c>
-      <c r="C1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" t="s">
         <v>26</v>
       </c>
-      <c r="B2" t="s">
-        <v>27</v>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -787,8 +821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F621D6EB-3981-4442-85C5-2D89DFAF9FAC}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -800,7 +834,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
         <v>23</v>
@@ -814,30 +848,30 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
         <v>29</v>
-      </c>
-      <c r="C2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
         <v>32</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s">
         <v>33</v>
-      </c>
-      <c r="C3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/datas/db.xlsx
+++ b/datas/db.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dano Sato\Documents\Python\REMO-Engine-100Examples\datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{577C0BC8-3A52-4D7F-9C8B-C452E5E2B32E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8952B4EF-3EC1-4BDA-B8E7-54D92DD02487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4560" yWindow="4560" windowWidth="28800" windowHeight="15370" activeTab="2" xr2:uid="{E60D345E-077A-4973-BE7F-27EB13B8077E}"/>
+    <workbookView xWindow="8240" yWindow="4450" windowWidth="28800" windowHeight="15380" activeTab="2" xr2:uid="{E60D345E-077A-4973-BE7F-27EB13B8077E}"/>
   </bookViews>
   <sheets>
     <sheet name="item" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
   <si>
     <t>Small Potion</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -181,6 +181,18 @@
   </si>
   <si>
     <t>Exit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>longText</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>long long text example to check my library is ok.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매우 긴 문장을 한번 써봐서 이것도 잘 되는지 볼려구 해요.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -765,17 +777,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3AEB28D-300B-4980-9703-5A1AF0DC58DD}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:B7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.33203125" customWidth="1"/>
-    <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="20.9140625" customWidth="1"/>
+    <col min="2" max="2" width="44.1640625" customWidth="1"/>
+    <col min="3" max="3" width="54.4140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
@@ -809,6 +821,17 @@
       </c>
       <c r="C3" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/datas/db.xlsx
+++ b/datas/db.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dano Sato\Documents\Python\REMO-Engine-100Examples\datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8952B4EF-3EC1-4BDA-B8E7-54D92DD02487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C061761F-A2AE-4CEF-A597-6CF872044402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8240" yWindow="4450" windowWidth="28800" windowHeight="15380" activeTab="2" xr2:uid="{E60D345E-077A-4973-BE7F-27EB13B8077E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="2" xr2:uid="{E60D345E-077A-4973-BE7F-27EB13B8077E}"/>
   </bookViews>
   <sheets>
     <sheet name="item" sheetId="1" r:id="rId1"/>
@@ -188,11 +188,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>long long text example to check my library is ok.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>매우 긴 문장을 한번 써봐서 이것도 잘 되는지 볼려구 해요.</t>
+    <t>A를 눌러서 한국어로 바꾸고, S키눌러서 영어로 바꿔보세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Press A to make Korean, press S to make English</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -780,7 +780,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -828,10 +828,10 @@
         <v>40</v>
       </c>
       <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" t="s">
         <v>41</v>
-      </c>
-      <c r="C4" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
